--- a/dados_processados/hemoprod_ma.xlsx
+++ b/dados_processados/hemoprod_ma.xlsx
@@ -1840,16 +1840,8 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>FUJISAN CENTRO DE HEMOTERAPIA E HEMATOLOGIA DO CEARA LTDA</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>7871676000957</v>
       </c>
@@ -2485,16 +2477,8 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>FUJISAN CENTRO DE HEMOTERAPIA E HEMATOLOGIA DO CEARA LTDA</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>7871676000957</v>
       </c>
@@ -3130,16 +3114,8 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>FUJISAN CENTRO DE HEMOTERAPIA E HEMATOLOGIA DO CEARA LTDA</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>7871676000957</v>
       </c>
@@ -3775,16 +3751,8 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>FUJISAN CENTRO DE HEMOTERAPIA E HEMATOLOGIA DO CEARA LTDA</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>7871676000957</v>
       </c>
@@ -4420,16 +4388,8 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>FUJISAN CENTRO DE HEMOTERAPIA E HEMATOLOGIA DO CEARA LTDA</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>7871676000957</v>
       </c>
@@ -5067,11 +5027,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>7871676000957</v>
@@ -5708,16 +5664,8 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>FUJISAN CENTRO DE HEMOTERAPIA E HEMATOLOGIA DO CEARA LTDA</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>7871676000957</v>
       </c>
@@ -6355,11 +6303,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>7871676000957</v>
@@ -6998,11 +6942,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>7871676000957</v>
@@ -7641,11 +7581,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>7871676000957</v>
@@ -8284,11 +8220,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>7871676000957</v>
@@ -8927,11 +8859,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>7871676000957</v>
@@ -9570,11 +9498,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>7871676000957</v>
@@ -10213,11 +10137,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>7871676000957</v>
@@ -10856,11 +10776,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>7871676000957</v>
@@ -11499,11 +11415,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>7871676000957</v>
@@ -12142,11 +12054,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>7871676000957</v>
@@ -12785,11 +12693,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>7871676000957</v>
@@ -13428,11 +13332,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>7871676000957</v>
@@ -14071,11 +13971,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>7871676000957</v>
@@ -14714,11 +14610,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>7871676000957</v>
@@ -15357,11 +15249,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>7871676000957</v>
@@ -16000,11 +15888,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>7871676000957</v>
@@ -16643,11 +16527,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>7871676000957</v>
@@ -17286,11 +17166,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
         <v>7871676000957</v>
@@ -17929,11 +17805,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
         <v>7871676000957</v>
@@ -18572,11 +18444,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
         <v>7871676000957</v>
@@ -19215,11 +19083,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
         <v>7871676000957</v>
@@ -19858,11 +19722,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
         <v>7871676000957</v>
@@ -20501,11 +20361,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
         <v>7871676000957</v>
@@ -21144,11 +21000,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
         <v>7871676000957</v>
@@ -21787,11 +21639,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
         <v>7871676000957</v>
@@ -22430,11 +22278,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
         <v>7871676000957</v>
@@ -23071,11 +22915,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
         <v>7871676000957</v>
@@ -23886,11 +23726,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
         <v>7871676000957</v>
@@ -24529,11 +24365,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
         <v>7871676000957</v>
@@ -25172,11 +25004,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
         <v>7871676000957</v>
@@ -25815,11 +25643,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
         <v>7871676000957</v>
@@ -26458,11 +26282,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
         <v>7871676000957</v>
@@ -27101,11 +26921,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
         <v>7871676000957</v>
@@ -27744,11 +27560,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
         <v>7871676000957</v>
@@ -28387,11 +28199,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
         <v>7871676000957</v>
@@ -29030,11 +28838,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
         <v>7871676000957</v>
@@ -29673,11 +29477,7 @@
           <t>São Luís, Maranhão</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Fujisan Centro de Hemoterapia e Hematologia do Ceará Ltda</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
         <v>7871676000957</v>
